--- a/biology/Botanique/Rosen-Zeitung/Rosen-Zeitung.xlsx
+++ b/biology/Botanique/Rosen-Zeitung/Rosen-Zeitung.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La Rosen-Zeitung (en français Journal des Roses) est une revue allemande, spécialisée dans le domaine des roses qui a été publiée de 1886 à 1933, puis relancée de 1991 à 1993. Elle était éditée mensuellement par la Verein Deutscher Rosenfreunde (Union des amis des roses allemands)[1].
+La Rosen-Zeitung (en français Journal des Roses) est une revue allemande, spécialisée dans le domaine des roses qui a été publiée de 1886 à 1933, puis relancée de 1991 à 1993. Elle était éditée mensuellement par la Verein Deutscher Rosenfreunde (Union des amis des roses allemands).
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le premier rédacteur-en-chef de cette revue est Conrad Strassheim[2] de 1886 à 1890[3], avant de prendre la fonction de directeur commercial de la maison Lambert. Hermann Kiese a été à la tête de la revue de 1911 à 1919. De 1923 à 1933, la revue est dirigée par Ewald Gnau (1853-1943), également directeur commercial de l'Union des amis allemands des roses.
-Chaque brochure s'ouvre par une planche en couleurs représentant le portrait d'une rose en chromolithographie, dont l'original est spécialement commandé par la revue à un peintre, et le plus souvent sous forme d'aquarelle, accompagné d'un texte descriptif. Quelques-unes de ces illustrations composées par Lena Schmidt-Michel ont été publiées dans un livre d'art en 1997 : Rosen-Porträts. Die schönsten Farbtafeln aus der Rosen-Zeitung 1886-1921[4]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le premier rédacteur-en-chef de cette revue est Conrad Strassheim de 1886 à 1890, avant de prendre la fonction de directeur commercial de la maison Lambert. Hermann Kiese a été à la tête de la revue de 1911 à 1919. De 1923 à 1933, la revue est dirigée par Ewald Gnau (1853-1943), également directeur commercial de l'Union des amis allemands des roses.
+Chaque brochure s'ouvre par une planche en couleurs représentant le portrait d'une rose en chromolithographie, dont l'original est spécialement commandé par la revue à un peintre, et le plus souvent sous forme d'aquarelle, accompagné d'un texte descriptif. Quelques-unes de ces illustrations composées par Lena Schmidt-Michel ont été publiées dans un livre d'art en 1997 : Rosen-Porträts. Die schönsten Farbtafeln aus der Rosen-Zeitung 1886-1921. 
 De 1886 à 1920, la couverture est rouge ou verte avec des ornements et lettres d'or. La couverture de la table annuelle des matières montre aussi des motifs délicatement composés qui reflètent l'esprit de l'époque.
 </t>
         </is>
